--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Igf2-Igf2r.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Igf2-Igf2r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Igf2r</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.1105425157988</v>
+        <v>5.659724333333333</v>
       </c>
       <c r="H2">
-        <v>5.1105425157988</v>
+        <v>16.979173</v>
       </c>
       <c r="I2">
-        <v>0.06174129770258461</v>
+        <v>0.03283999818647845</v>
       </c>
       <c r="J2">
-        <v>0.06174129770258461</v>
+        <v>0.03283999818647846</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.4475002323018</v>
+        <v>16.36026066666667</v>
       </c>
       <c r="N2">
-        <v>11.4475002323018</v>
+        <v>49.080782</v>
       </c>
       <c r="O2">
-        <v>0.08328380695159603</v>
+        <v>0.1040179164488296</v>
       </c>
       <c r="P2">
-        <v>0.08328380695159603</v>
+        <v>0.1040179164488296</v>
       </c>
       <c r="Q2">
-        <v>58.50293663679499</v>
+        <v>92.59456539480955</v>
       </c>
       <c r="R2">
-        <v>58.50293663679499</v>
+        <v>833.351088553286</v>
       </c>
       <c r="S2">
-        <v>0.005142050318803076</v>
+        <v>0.003415948187540833</v>
       </c>
       <c r="T2">
-        <v>0.005142050318803076</v>
+        <v>0.003415948187540833</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.1105425157988</v>
+        <v>5.659724333333333</v>
       </c>
       <c r="H3">
-        <v>5.1105425157988</v>
+        <v>16.979173</v>
       </c>
       <c r="I3">
-        <v>0.06174129770258461</v>
+        <v>0.03283999818647845</v>
       </c>
       <c r="J3">
-        <v>0.06174129770258461</v>
+        <v>0.03283999818647846</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.7592588474027</v>
+        <v>27.913432</v>
       </c>
       <c r="N3">
-        <v>27.7592588474027</v>
+        <v>83.740296</v>
       </c>
       <c r="O3">
-        <v>0.2019564715485144</v>
+        <v>0.1774725413447623</v>
       </c>
       <c r="P3">
-        <v>0.2019564715485144</v>
+        <v>0.1774725413447623</v>
       </c>
       <c r="Q3">
-        <v>141.8648725467155</v>
+        <v>157.9823303172453</v>
       </c>
       <c r="R3">
-        <v>141.8648725467155</v>
+        <v>1421.840972855208</v>
       </c>
       <c r="S3">
-        <v>0.01246905463284039</v>
+        <v>0.005828197935911716</v>
       </c>
       <c r="T3">
-        <v>0.01246905463284039</v>
+        <v>0.005828197935911716</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.1105425157988</v>
+        <v>5.659724333333333</v>
       </c>
       <c r="H4">
-        <v>5.1105425157988</v>
+        <v>16.979173</v>
       </c>
       <c r="I4">
-        <v>0.06174129770258461</v>
+        <v>0.03283999818647845</v>
       </c>
       <c r="J4">
-        <v>0.06174129770258461</v>
+        <v>0.03283999818647846</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.0401242983166</v>
+        <v>14.227296</v>
       </c>
       <c r="N4">
-        <v>13.0401242983166</v>
+        <v>42.68188799999999</v>
       </c>
       <c r="O4">
-        <v>0.09487059817839752</v>
+        <v>0.09045660804390411</v>
       </c>
       <c r="P4">
-        <v>0.09487059817839752</v>
+        <v>0.09045660804390411</v>
       </c>
       <c r="Q4">
-        <v>66.64210963784798</v>
+        <v>80.52257336873598</v>
       </c>
       <c r="R4">
-        <v>66.64210963784798</v>
+        <v>724.7031603186239</v>
       </c>
       <c r="S4">
-        <v>0.005857433845354722</v>
+        <v>0.002970594844116803</v>
       </c>
       <c r="T4">
-        <v>0.005857433845354722</v>
+        <v>0.002970594844116804</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.1105425157988</v>
+        <v>5.659724333333333</v>
       </c>
       <c r="H5">
-        <v>5.1105425157988</v>
+        <v>16.979173</v>
       </c>
       <c r="I5">
-        <v>0.06174129770258461</v>
+        <v>0.03283999818647845</v>
       </c>
       <c r="J5">
-        <v>0.06174129770258461</v>
+        <v>0.03283999818647846</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.85408789580239</v>
+        <v>6.972696</v>
       </c>
       <c r="N5">
-        <v>6.85408789580239</v>
+        <v>20.918088</v>
       </c>
       <c r="O5">
-        <v>0.04986543101633089</v>
+        <v>0.04433213655506275</v>
       </c>
       <c r="P5">
-        <v>0.04986543101633089</v>
+        <v>0.04433213655506275</v>
       </c>
       <c r="Q5">
-        <v>35.02810759852005</v>
+        <v>39.463537220136</v>
       </c>
       <c r="R5">
-        <v>35.02810759852005</v>
+        <v>355.171834981224</v>
       </c>
       <c r="S5">
-        <v>0.003078756421446982</v>
+        <v>0.001455867284070976</v>
       </c>
       <c r="T5">
-        <v>0.003078756421446982</v>
+        <v>0.001455867284070976</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.1105425157988</v>
+        <v>5.659724333333333</v>
       </c>
       <c r="H6">
-        <v>5.1105425157988</v>
+        <v>16.979173</v>
       </c>
       <c r="I6">
-        <v>0.06174129770258461</v>
+        <v>0.03283999818647845</v>
       </c>
       <c r="J6">
-        <v>0.06174129770258461</v>
+        <v>0.03283999818647846</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>47.2563673299423</v>
+        <v>48.33663566666667</v>
       </c>
       <c r="N6">
-        <v>47.2563673299423</v>
+        <v>145.009907</v>
       </c>
       <c r="O6">
-        <v>0.3438034587529558</v>
+        <v>0.3073224951994155</v>
       </c>
       <c r="P6">
-        <v>0.3438034587529558</v>
+        <v>0.3073224951994155</v>
       </c>
       <c r="Q6">
-        <v>241.5056743818755</v>
+        <v>273.5720330741012</v>
       </c>
       <c r="R6">
-        <v>241.5056743818755</v>
+        <v>2462.148297666911</v>
       </c>
       <c r="S6">
-        <v>0.02122687169804451</v>
+        <v>0.01009247018501284</v>
       </c>
       <c r="T6">
-        <v>0.02122687169804451</v>
+        <v>0.01009247018501284</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.1105425157988</v>
+        <v>5.659724333333333</v>
       </c>
       <c r="H7">
-        <v>5.1105425157988</v>
+        <v>16.979173</v>
       </c>
       <c r="I7">
-        <v>0.06174129770258461</v>
+        <v>0.03283999818647845</v>
       </c>
       <c r="J7">
-        <v>0.06174129770258461</v>
+        <v>0.03283999818647846</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>31.0943540038381</v>
+        <v>43.47278266666666</v>
       </c>
       <c r="N7">
-        <v>31.0943540038381</v>
+        <v>130.418348</v>
       </c>
       <c r="O7">
-        <v>0.2262202335522054</v>
+        <v>0.2763983024080258</v>
       </c>
       <c r="P7">
-        <v>0.2262202335522054</v>
+        <v>0.2763983024080257</v>
       </c>
       <c r="Q7">
-        <v>158.9090181379133</v>
+        <v>246.0439658962449</v>
       </c>
       <c r="R7">
-        <v>158.9090181379133</v>
+        <v>2214.395693066203</v>
       </c>
       <c r="S7">
-        <v>0.01396713078609493</v>
+        <v>0.00907691974982529</v>
       </c>
       <c r="T7">
-        <v>0.01396713078609493</v>
+        <v>0.00907691974982529</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.634628647512897</v>
+        <v>1.215185333333333</v>
       </c>
       <c r="H8">
-        <v>0.634628647512897</v>
+        <v>3.645556</v>
       </c>
       <c r="I8">
-        <v>0.00766705220347002</v>
+        <v>0.007050994322792144</v>
       </c>
       <c r="J8">
-        <v>0.00766705220347002</v>
+        <v>0.007050994322792145</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.4475002323018</v>
+        <v>16.36026066666667</v>
       </c>
       <c r="N8">
-        <v>11.4475002323018</v>
+        <v>49.080782</v>
       </c>
       <c r="O8">
-        <v>0.08328380695159603</v>
+        <v>0.1040179164488296</v>
       </c>
       <c r="P8">
-        <v>0.08328380695159603</v>
+        <v>0.1040179164488296</v>
       </c>
       <c r="Q8">
-        <v>7.264911589829267</v>
+        <v>19.88074881164355</v>
       </c>
       <c r="R8">
-        <v>7.264911589829267</v>
+        <v>178.926739304792</v>
       </c>
       <c r="S8">
-        <v>0.0006385412956016061</v>
+        <v>0.0007334297383493654</v>
       </c>
       <c r="T8">
-        <v>0.0006385412956016061</v>
+        <v>0.0007334297383493654</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.634628647512897</v>
+        <v>1.215185333333333</v>
       </c>
       <c r="H9">
-        <v>0.634628647512897</v>
+        <v>3.645556</v>
       </c>
       <c r="I9">
-        <v>0.00766705220347002</v>
+        <v>0.007050994322792144</v>
       </c>
       <c r="J9">
-        <v>0.00766705220347002</v>
+        <v>0.007050994322792145</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>27.7592588474027</v>
+        <v>27.913432</v>
       </c>
       <c r="N9">
-        <v>27.7592588474027</v>
+        <v>83.740296</v>
       </c>
       <c r="O9">
-        <v>0.2019564715485144</v>
+        <v>0.1774725413447623</v>
       </c>
       <c r="P9">
-        <v>0.2019564715485144</v>
+        <v>0.1774725413447623</v>
       </c>
       <c r="Q9">
-        <v>17.6168208982876</v>
+        <v>33.91999316939734</v>
       </c>
       <c r="R9">
-        <v>17.6168208982876</v>
+        <v>305.279938524576</v>
       </c>
       <c r="S9">
-        <v>0.001548410810191068</v>
+        <v>0.001251357881473413</v>
       </c>
       <c r="T9">
-        <v>0.001548410810191068</v>
+        <v>0.001251357881473413</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.634628647512897</v>
+        <v>1.215185333333333</v>
       </c>
       <c r="H10">
-        <v>0.634628647512897</v>
+        <v>3.645556</v>
       </c>
       <c r="I10">
-        <v>0.00766705220347002</v>
+        <v>0.007050994322792144</v>
       </c>
       <c r="J10">
-        <v>0.00766705220347002</v>
+        <v>0.007050994322792145</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.0401242983166</v>
+        <v>14.227296</v>
       </c>
       <c r="N10">
-        <v>13.0401242983166</v>
+        <v>42.68188799999999</v>
       </c>
       <c r="O10">
-        <v>0.09487059817839752</v>
+        <v>0.09045660804390411</v>
       </c>
       <c r="P10">
-        <v>0.09487059817839752</v>
+        <v>0.09045660804390411</v>
       </c>
       <c r="Q10">
-        <v>8.27563644684073</v>
+        <v>17.288801432192</v>
       </c>
       <c r="R10">
-        <v>8.27563644684073</v>
+        <v>155.599212889728</v>
       </c>
       <c r="S10">
-        <v>0.0007273778288082016</v>
+        <v>0.0006378090297766021</v>
       </c>
       <c r="T10">
-        <v>0.0007273778288082016</v>
+        <v>0.0006378090297766021</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.634628647512897</v>
+        <v>1.215185333333333</v>
       </c>
       <c r="H11">
-        <v>0.634628647512897</v>
+        <v>3.645556</v>
       </c>
       <c r="I11">
-        <v>0.00766705220347002</v>
+        <v>0.007050994322792144</v>
       </c>
       <c r="J11">
-        <v>0.00766705220347002</v>
+        <v>0.007050994322792145</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.85408789580239</v>
+        <v>6.972696</v>
       </c>
       <c r="N11">
-        <v>6.85408789580239</v>
+        <v>20.918088</v>
       </c>
       <c r="O11">
-        <v>0.04986543101633089</v>
+        <v>0.04433213655506275</v>
       </c>
       <c r="P11">
-        <v>0.04986543101633089</v>
+        <v>0.04433213655506275</v>
       </c>
       <c r="Q11">
-        <v>4.349800531247589</v>
+        <v>8.473117912992</v>
       </c>
       <c r="R11">
-        <v>4.349800531247589</v>
+        <v>76.258061216928</v>
       </c>
       <c r="S11">
-        <v>0.000382320862750742</v>
+        <v>0.0003125856431669936</v>
       </c>
       <c r="T11">
-        <v>0.000382320862750742</v>
+        <v>0.0003125856431669936</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.634628647512897</v>
+        <v>1.215185333333333</v>
       </c>
       <c r="H12">
-        <v>0.634628647512897</v>
+        <v>3.645556</v>
       </c>
       <c r="I12">
-        <v>0.00766705220347002</v>
+        <v>0.007050994322792144</v>
       </c>
       <c r="J12">
-        <v>0.00766705220347002</v>
+        <v>0.007050994322792145</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>47.2563673299423</v>
+        <v>48.33663566666667</v>
       </c>
       <c r="N12">
-        <v>47.2563673299423</v>
+        <v>145.009907</v>
       </c>
       <c r="O12">
-        <v>0.3438034587529558</v>
+        <v>0.3073224951994155</v>
       </c>
       <c r="P12">
-        <v>0.3438034587529558</v>
+        <v>0.3073224951994155</v>
       </c>
       <c r="Q12">
-        <v>29.99024448497394</v>
+        <v>58.73797072481022</v>
       </c>
       <c r="R12">
-        <v>29.99024448497394</v>
+        <v>528.641736523292</v>
       </c>
       <c r="S12">
-        <v>0.002635959065992463</v>
+        <v>0.002166929168917395</v>
       </c>
       <c r="T12">
-        <v>0.002635959065992463</v>
+        <v>0.002166929168917395</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.634628647512897</v>
+        <v>1.215185333333333</v>
       </c>
       <c r="H13">
-        <v>0.634628647512897</v>
+        <v>3.645556</v>
       </c>
       <c r="I13">
-        <v>0.00766705220347002</v>
+        <v>0.007050994322792144</v>
       </c>
       <c r="J13">
-        <v>0.00766705220347002</v>
+        <v>0.007050994322792145</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>31.0943540038381</v>
+        <v>43.47278266666666</v>
       </c>
       <c r="N13">
-        <v>31.0943540038381</v>
+        <v>130.418348</v>
       </c>
       <c r="O13">
-        <v>0.2262202335522054</v>
+        <v>0.2763983024080258</v>
       </c>
       <c r="P13">
-        <v>0.2262202335522054</v>
+        <v>0.2763983024080257</v>
       </c>
       <c r="Q13">
-        <v>19.73336782674301</v>
+        <v>52.82748789572088</v>
       </c>
       <c r="R13">
-        <v>19.73336782674301</v>
+        <v>475.4473910614879</v>
       </c>
       <c r="S13">
-        <v>0.001734442340125939</v>
+        <v>0.001948882861108376</v>
       </c>
       <c r="T13">
-        <v>0.001734442340125939</v>
+        <v>0.001948882861108376</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>77.0283160480668</v>
+        <v>0.148871</v>
       </c>
       <c r="H14">
-        <v>77.0283160480668</v>
+        <v>0.446613</v>
       </c>
       <c r="I14">
-        <v>0.9305916500939454</v>
+        <v>0.000863809451146867</v>
       </c>
       <c r="J14">
-        <v>0.9305916500939454</v>
+        <v>0.000863809451146867</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.4475002323018</v>
+        <v>16.36026066666667</v>
       </c>
       <c r="N14">
-        <v>11.4475002323018</v>
+        <v>49.080782</v>
       </c>
       <c r="O14">
-        <v>0.08328380695159603</v>
+        <v>0.1040179164488296</v>
       </c>
       <c r="P14">
-        <v>0.08328380695159603</v>
+        <v>0.1040179164488296</v>
       </c>
       <c r="Q14">
-        <v>881.7816658540612</v>
+        <v>2.435568365707333</v>
       </c>
       <c r="R14">
-        <v>881.7816658540612</v>
+        <v>21.920115291366</v>
       </c>
       <c r="S14">
-        <v>0.07750321533719134</v>
+        <v>8.985165931710421E-05</v>
       </c>
       <c r="T14">
-        <v>0.07750321533719134</v>
+        <v>8.985165931710421E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>77.0283160480668</v>
+        <v>0.148871</v>
       </c>
       <c r="H15">
-        <v>77.0283160480668</v>
+        <v>0.446613</v>
       </c>
       <c r="I15">
-        <v>0.9305916500939454</v>
+        <v>0.000863809451146867</v>
       </c>
       <c r="J15">
-        <v>0.9305916500939454</v>
+        <v>0.000863809451146867</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>27.7592588474027</v>
+        <v>27.913432</v>
       </c>
       <c r="N15">
-        <v>27.7592588474027</v>
+        <v>83.740296</v>
       </c>
       <c r="O15">
-        <v>0.2019564715485144</v>
+        <v>0.1774725413447623</v>
       </c>
       <c r="P15">
-        <v>0.2019564715485144</v>
+        <v>0.1774725413447623</v>
       </c>
       <c r="Q15">
-        <v>2138.24896375783</v>
+        <v>4.155500535272</v>
       </c>
       <c r="R15">
-        <v>2138.24896375783</v>
+        <v>37.399504817448</v>
       </c>
       <c r="S15">
-        <v>0.1879390061054829</v>
+        <v>0.0001533024585326588</v>
       </c>
       <c r="T15">
-        <v>0.1879390061054829</v>
+        <v>0.0001533024585326587</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>77.0283160480668</v>
+        <v>0.148871</v>
       </c>
       <c r="H16">
-        <v>77.0283160480668</v>
+        <v>0.446613</v>
       </c>
       <c r="I16">
-        <v>0.9305916500939454</v>
+        <v>0.000863809451146867</v>
       </c>
       <c r="J16">
-        <v>0.9305916500939454</v>
+        <v>0.000863809451146867</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.0401242983166</v>
+        <v>14.227296</v>
       </c>
       <c r="N16">
-        <v>13.0401242983166</v>
+        <v>42.68188799999999</v>
       </c>
       <c r="O16">
-        <v>0.09487059817839752</v>
+        <v>0.09045660804390411</v>
       </c>
       <c r="P16">
-        <v>0.09487059817839752</v>
+        <v>0.09045660804390411</v>
       </c>
       <c r="Q16">
-        <v>1004.458815756806</v>
+        <v>2.118031782816</v>
       </c>
       <c r="R16">
-        <v>1004.458815756806</v>
+        <v>19.062286045344</v>
       </c>
       <c r="S16">
-        <v>0.0882857865042346</v>
+        <v>7.813727294701209E-05</v>
       </c>
       <c r="T16">
-        <v>0.0882857865042346</v>
+        <v>7.813727294701209E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>77.0283160480668</v>
+        <v>0.148871</v>
       </c>
       <c r="H17">
-        <v>77.0283160480668</v>
+        <v>0.446613</v>
       </c>
       <c r="I17">
-        <v>0.9305916500939454</v>
+        <v>0.000863809451146867</v>
       </c>
       <c r="J17">
-        <v>0.9305916500939454</v>
+        <v>0.000863809451146867</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.85408789580239</v>
+        <v>6.972696</v>
       </c>
       <c r="N17">
-        <v>6.85408789580239</v>
+        <v>20.918088</v>
       </c>
       <c r="O17">
-        <v>0.04986543101633089</v>
+        <v>0.04433213655506275</v>
       </c>
       <c r="P17">
-        <v>0.04986543101633089</v>
+        <v>0.04433213655506275</v>
       </c>
       <c r="Q17">
-        <v>527.9588486590957</v>
+        <v>1.038032226216</v>
       </c>
       <c r="R17">
-        <v>527.9588486590957</v>
+        <v>9.342290035944</v>
       </c>
       <c r="S17">
-        <v>0.04640435373213317</v>
+        <v>3.829451854579672E-05</v>
       </c>
       <c r="T17">
-        <v>0.04640435373213317</v>
+        <v>3.829451854579672E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,10 +1520,10 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
@@ -1532,49 +1532,49 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>77.0283160480668</v>
+        <v>0.148871</v>
       </c>
       <c r="H18">
-        <v>77.0283160480668</v>
+        <v>0.446613</v>
       </c>
       <c r="I18">
-        <v>0.9305916500939454</v>
+        <v>0.000863809451146867</v>
       </c>
       <c r="J18">
-        <v>0.9305916500939454</v>
+        <v>0.000863809451146867</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>47.2563673299423</v>
+        <v>48.33663566666667</v>
       </c>
       <c r="N18">
-        <v>47.2563673299423</v>
+        <v>145.009907</v>
       </c>
       <c r="O18">
-        <v>0.3438034587529558</v>
+        <v>0.3073224951994155</v>
       </c>
       <c r="P18">
-        <v>0.3438034587529558</v>
+        <v>0.3073224951994155</v>
       </c>
       <c r="Q18">
-        <v>3640.078397974334</v>
+        <v>7.195923288332334</v>
       </c>
       <c r="R18">
-        <v>3640.078397974334</v>
+        <v>64.763309594991</v>
       </c>
       <c r="S18">
-        <v>0.3199406279889188</v>
+        <v>0.0002654680759032928</v>
       </c>
       <c r="T18">
-        <v>0.3199406279889188</v>
+        <v>0.0002654680759032928</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,805 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.148871</v>
+      </c>
+      <c r="H19">
+        <v>0.446613</v>
+      </c>
+      <c r="I19">
+        <v>0.000863809451146867</v>
+      </c>
+      <c r="J19">
+        <v>0.000863809451146867</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>43.47278266666666</v>
+      </c>
+      <c r="N19">
+        <v>130.418348</v>
+      </c>
+      <c r="O19">
+        <v>0.2763983024080258</v>
+      </c>
+      <c r="P19">
+        <v>0.2763983024080257</v>
+      </c>
+      <c r="Q19">
+        <v>6.471836628369332</v>
+      </c>
+      <c r="R19">
+        <v>58.24652965532399</v>
+      </c>
+      <c r="S19">
+        <v>0.0002387554659010025</v>
+      </c>
+      <c r="T19">
+        <v>0.0002387554659010025</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>1.227242333333334</v>
+      </c>
+      <c r="H20">
+        <v>3.681727</v>
+      </c>
+      <c r="I20">
+        <v>0.007120953888808883</v>
+      </c>
+      <c r="J20">
+        <v>0.007120953888808883</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>16.36026066666667</v>
+      </c>
+      <c r="N20">
+        <v>49.080782</v>
+      </c>
+      <c r="O20">
+        <v>0.1040179164488296</v>
+      </c>
+      <c r="P20">
+        <v>0.1040179164488296</v>
+      </c>
+      <c r="Q20">
+        <v>20.07800447450156</v>
+      </c>
+      <c r="R20">
+        <v>180.702040270514</v>
+      </c>
+      <c r="S20">
+        <v>0.0007407067866420909</v>
+      </c>
+      <c r="T20">
+        <v>0.0007407067866420909</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>1.227242333333334</v>
+      </c>
+      <c r="H21">
+        <v>3.681727</v>
+      </c>
+      <c r="I21">
+        <v>0.007120953888808883</v>
+      </c>
+      <c r="J21">
+        <v>0.007120953888808883</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>27.913432</v>
+      </c>
+      <c r="N21">
+        <v>83.740296</v>
+      </c>
+      <c r="O21">
+        <v>0.1774725413447623</v>
+      </c>
+      <c r="P21">
+        <v>0.1774725413447623</v>
+      </c>
+      <c r="Q21">
+        <v>34.25654541902134</v>
+      </c>
+      <c r="R21">
+        <v>308.308908771192</v>
+      </c>
+      <c r="S21">
+        <v>0.00126377378344578</v>
+      </c>
+      <c r="T21">
+        <v>0.00126377378344578</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>1.227242333333334</v>
+      </c>
+      <c r="H22">
+        <v>3.681727</v>
+      </c>
+      <c r="I22">
+        <v>0.007120953888808883</v>
+      </c>
+      <c r="J22">
+        <v>0.007120953888808883</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>14.227296</v>
+      </c>
+      <c r="N22">
+        <v>42.68188799999999</v>
+      </c>
+      <c r="O22">
+        <v>0.09045660804390411</v>
+      </c>
+      <c r="P22">
+        <v>0.09045660804390411</v>
+      </c>
+      <c r="Q22">
+        <v>17.460339940064</v>
+      </c>
+      <c r="R22">
+        <v>157.143059460576</v>
+      </c>
+      <c r="S22">
+        <v>0.0006441373348186999</v>
+      </c>
+      <c r="T22">
+        <v>0.0006441373348186999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>1.227242333333334</v>
+      </c>
+      <c r="H23">
+        <v>3.681727</v>
+      </c>
+      <c r="I23">
+        <v>0.007120953888808883</v>
+      </c>
+      <c r="J23">
+        <v>0.007120953888808883</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>6.972696</v>
+      </c>
+      <c r="N23">
+        <v>20.918088</v>
+      </c>
+      <c r="O23">
+        <v>0.04433213655506275</v>
+      </c>
+      <c r="P23">
+        <v>0.04433213655506275</v>
+      </c>
+      <c r="Q23">
+        <v>8.557187708664001</v>
+      </c>
+      <c r="R23">
+        <v>77.01468937797601</v>
+      </c>
+      <c r="S23">
+        <v>0.0003156871002009806</v>
+      </c>
+      <c r="T23">
+        <v>0.0003156871002009806</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>1.227242333333334</v>
+      </c>
+      <c r="H24">
+        <v>3.681727</v>
+      </c>
+      <c r="I24">
+        <v>0.007120953888808883</v>
+      </c>
+      <c r="J24">
+        <v>0.007120953888808883</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>48.33663566666667</v>
+      </c>
+      <c r="N24">
+        <v>145.009907</v>
+      </c>
+      <c r="O24">
+        <v>0.3073224951994155</v>
+      </c>
+      <c r="P24">
+        <v>0.3073224951994155</v>
+      </c>
+      <c r="Q24">
+        <v>59.32076554104323</v>
+      </c>
+      <c r="R24">
+        <v>533.8868898693891</v>
+      </c>
+      <c r="S24">
+        <v>0.002188429317308727</v>
+      </c>
+      <c r="T24">
+        <v>0.002188429317308727</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>1.227242333333334</v>
+      </c>
+      <c r="H25">
+        <v>3.681727</v>
+      </c>
+      <c r="I25">
+        <v>0.007120953888808883</v>
+      </c>
+      <c r="J25">
+        <v>0.007120953888808883</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>43.47278266666666</v>
+      </c>
+      <c r="N25">
+        <v>130.418348</v>
+      </c>
+      <c r="O25">
+        <v>0.2763983024080258</v>
+      </c>
+      <c r="P25">
+        <v>0.2763983024080257</v>
+      </c>
+      <c r="Q25">
+        <v>53.35163923633289</v>
+      </c>
+      <c r="R25">
+        <v>480.164753126996</v>
+      </c>
+      <c r="S25">
+        <v>0.001968219566392605</v>
+      </c>
+      <c r="T25">
+        <v>0.001968219566392604</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>164.091384</v>
+      </c>
+      <c r="H26">
+        <v>492.2741520000001</v>
+      </c>
+      <c r="I26">
+        <v>0.9521242441507737</v>
+      </c>
+      <c r="J26">
+        <v>0.9521242441507737</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>16.36026066666667</v>
+      </c>
+      <c r="N26">
+        <v>49.080782</v>
+      </c>
+      <c r="O26">
+        <v>0.1040179164488296</v>
+      </c>
+      <c r="P26">
+        <v>0.1040179164488296</v>
+      </c>
+      <c r="Q26">
+        <v>2684.577815394096</v>
+      </c>
+      <c r="R26">
+        <v>24161.20033854687</v>
+      </c>
+      <c r="S26">
+        <v>0.09903798007698025</v>
+      </c>
+      <c r="T26">
+        <v>0.09903798007698025</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>164.091384</v>
+      </c>
+      <c r="H27">
+        <v>492.2741520000001</v>
+      </c>
+      <c r="I27">
+        <v>0.9521242441507737</v>
+      </c>
+      <c r="J27">
+        <v>0.9521242441507737</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>27.913432</v>
+      </c>
+      <c r="N27">
+        <v>83.740296</v>
+      </c>
+      <c r="O27">
+        <v>0.1774725413447623</v>
+      </c>
+      <c r="P27">
+        <v>0.1774725413447623</v>
+      </c>
+      <c r="Q27">
+        <v>4580.353689069889</v>
+      </c>
+      <c r="R27">
+        <v>41223.183201629</v>
+      </c>
+      <c r="S27">
+        <v>0.1689759092853987</v>
+      </c>
+      <c r="T27">
+        <v>0.1689759092853987</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>77.0283160480668</v>
-      </c>
-      <c r="H19">
-        <v>77.0283160480668</v>
-      </c>
-      <c r="I19">
-        <v>0.9305916500939454</v>
-      </c>
-      <c r="J19">
-        <v>0.9305916500939454</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>31.0943540038381</v>
-      </c>
-      <c r="N19">
-        <v>31.0943540038381</v>
-      </c>
-      <c r="O19">
-        <v>0.2262202335522054</v>
-      </c>
-      <c r="P19">
-        <v>0.2262202335522054</v>
-      </c>
-      <c r="Q19">
-        <v>2395.145727518112</v>
-      </c>
-      <c r="R19">
-        <v>2395.145727518112</v>
-      </c>
-      <c r="S19">
-        <v>0.2105186604259845</v>
-      </c>
-      <c r="T19">
-        <v>0.2105186604259845</v>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>164.091384</v>
+      </c>
+      <c r="H28">
+        <v>492.2741520000001</v>
+      </c>
+      <c r="I28">
+        <v>0.9521242441507737</v>
+      </c>
+      <c r="J28">
+        <v>0.9521242441507737</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>14.227296</v>
+      </c>
+      <c r="N28">
+        <v>42.68188799999999</v>
+      </c>
+      <c r="O28">
+        <v>0.09045660804390411</v>
+      </c>
+      <c r="P28">
+        <v>0.09045660804390411</v>
+      </c>
+      <c r="Q28">
+        <v>2334.576691217664</v>
+      </c>
+      <c r="R28">
+        <v>21011.19022095898</v>
+      </c>
+      <c r="S28">
+        <v>0.08612592956224499</v>
+      </c>
+      <c r="T28">
+        <v>0.08612592956224499</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>164.091384</v>
+      </c>
+      <c r="H29">
+        <v>492.2741520000001</v>
+      </c>
+      <c r="I29">
+        <v>0.9521242441507737</v>
+      </c>
+      <c r="J29">
+        <v>0.9521242441507737</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>6.972696</v>
+      </c>
+      <c r="N29">
+        <v>20.918088</v>
+      </c>
+      <c r="O29">
+        <v>0.04433213655506275</v>
+      </c>
+      <c r="P29">
+        <v>0.04433213655506275</v>
+      </c>
+      <c r="Q29">
+        <v>1144.159336851264</v>
+      </c>
+      <c r="R29">
+        <v>10297.43403166138</v>
+      </c>
+      <c r="S29">
+        <v>0.04220970200907801</v>
+      </c>
+      <c r="T29">
+        <v>0.04220970200907801</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>164.091384</v>
+      </c>
+      <c r="H30">
+        <v>492.2741520000001</v>
+      </c>
+      <c r="I30">
+        <v>0.9521242441507737</v>
+      </c>
+      <c r="J30">
+        <v>0.9521242441507737</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>48.33663566666667</v>
+      </c>
+      <c r="N30">
+        <v>145.009907</v>
+      </c>
+      <c r="O30">
+        <v>0.3073224951994155</v>
+      </c>
+      <c r="P30">
+        <v>0.3073224951994155</v>
+      </c>
+      <c r="Q30">
+        <v>7931.625444447098</v>
+      </c>
+      <c r="R30">
+        <v>71384.62900002388</v>
+      </c>
+      <c r="S30">
+        <v>0.2926091984522733</v>
+      </c>
+      <c r="T30">
+        <v>0.2926091984522732</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>164.091384</v>
+      </c>
+      <c r="H31">
+        <v>492.2741520000001</v>
+      </c>
+      <c r="I31">
+        <v>0.9521242441507737</v>
+      </c>
+      <c r="J31">
+        <v>0.9521242441507737</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>43.47278266666666</v>
+      </c>
+      <c r="N31">
+        <v>130.418348</v>
+      </c>
+      <c r="O31">
+        <v>0.2763983024080258</v>
+      </c>
+      <c r="P31">
+        <v>0.2763983024080257</v>
+      </c>
+      <c r="Q31">
+        <v>7133.509074104544</v>
+      </c>
+      <c r="R31">
+        <v>64201.5816669409</v>
+      </c>
+      <c r="S31">
+        <v>0.2631655247647985</v>
+      </c>
+      <c r="T31">
+        <v>0.2631655247647984</v>
       </c>
     </row>
   </sheetData>
